--- a/analysis/functions_arguments.xlsx
+++ b/analysis/functions_arguments.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="download_external_data" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="process_external_data" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="create_visualization" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -240,7 +241,70 @@
     <t xml:space="preserve">process_municipality_priority</t>
   </si>
   <si>
-    <t xml:space="preserve">coordinates</t>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viz_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out_filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Vegetation Supression Time Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Vegetation Suppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nvs_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highways Time Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highways_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation Units Time Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consunit_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous Territory Time Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigenous Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indilands_timeseries</t>
   </si>
 </sst>
 </file>
@@ -515,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -601,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -647,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -705,8 +769,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,11 +907,160 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/functions_arguments.xlsx
+++ b/analysis/functions_arguments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="download_external_data" sheetId="1" state="visible" r:id="rId3"/>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Instituto Brasileiro de Geografia e Estatística (IBGE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Delimitation of Brazilian Biomes</t>
+    <t xml:space="preserve">Delimitação dos Biomas Brasileiros</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ibge.gov.br/geociencias/informacoes-ambientais/vegetacao/15842-biomas.html?edicao=16060&amp;t=o-que-e</t>
@@ -76,11 +76,29 @@
 Instituto de Pesquisa Econômica Aplicada (IPEA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Delimitation of Brazilian Municipalities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ibge.gov.br/geociencias/organizacao-do-territorio/malhas-territoriais/15774-malhas.html?=&amp;t=o-que-e
-https://github.com/ipeaGIT/geobr</t>
+    <t xml:space="preserve">Delimitação dos Municípios Brasileiros</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.ibge.gov.br/geociencias/organizacao-do-territorio/malhas-territoriais/15774-malhas.html?=&amp;t=o-que-e
+https://github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.com/ipeaGIT/geobr</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">municipality_url_function()</t>
@@ -92,7 +110,7 @@
     <t xml:space="preserve">MapBiomas</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual classification of land use and land cover of Brazil from 1985 to 2022</t>
+    <t xml:space="preserve">Classificação anual do uso e cobertura da terra no Brasil</t>
   </si>
   <si>
     <t xml:space="preserve">https://brasil.mapbiomas.org/</t>
@@ -107,7 +125,7 @@
     <t xml:space="preserve">Departamento Nacional de Infraestrutura de Transportes (DNIT)</t>
   </si>
   <si>
-    <t xml:space="preserve">Delineation of brazilian highways from 1994 to 2023</t>
+    <t xml:space="preserve">Malha rodoviária do Brasil</t>
   </si>
   <si>
     <t xml:space="preserve">http://servicos.dnit.gov.br/dnitcloud/index.php/s/oTpPRmYs5AAdiNr</t>
@@ -122,7 +140,7 @@
     <t xml:space="preserve">Fundação Nacional dos Povos Indígenas (FUNAI)</t>
   </si>
   <si>
-    <t xml:space="preserve">Delimitation of Indigenous Territory</t>
+    <t xml:space="preserve">Delimitação de Territórios Indígenas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.br/funai/pt-br/atuacao/terras-indigenas/geoprocessamento-e-mapas</t>
@@ -138,7 +156,7 @@
 Instituto Chico Mendes de Conservação da Biodiversidade (ICMBio)</t>
   </si>
   <si>
-    <t xml:space="preserve">Delimitation and characterization of conservation units registered with the CNUC</t>
+    <t xml:space="preserve">Delimitação de Unidades de Conservação registradas no CNUC</t>
   </si>
   <si>
     <t xml:space="preserve">https://dados.gov.br/dados/conjuntos-dados/unidadesdeconservacao</t>
@@ -153,7 +171,7 @@
     <t xml:space="preserve">Instituto Nacional de Colonização e Reforma Agrária (INCRA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Delimitation and characterization of quilombola territories</t>
+    <t xml:space="preserve">Delimitação de Territórios Quilombolas</t>
   </si>
   <si>
     <t xml:space="preserve">https://dados.gov.br/dados/conjuntos-dados/acervo-fundiario</t>
@@ -168,11 +186,29 @@
     <t xml:space="preserve">Diário Oficial da União (DOU)</t>
   </si>
   <si>
-    <t xml:space="preserve">List of municipalities included as a priority target for deforestation monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.in.gov.br/servicos/diario-oficial-da-uniao
-https://zenodo.org/records/8412144</t>
+    <t xml:space="preserve">Lista Negra do Desmatamento</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.in.gov.br/servicos/diario-oficial-da-uniao
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://zenodo.org/records/8412144</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://zenodo.org/records/8412144/files/priority_list.csv?download=1</t>
@@ -181,7 +217,7 @@
     <t xml:space="preserve">veg_suppression</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual classification of vegetation suppression and secondary vegetation recovery</t>
+    <t xml:space="preserve">Classificação annual de desmatamento no Brasil</t>
   </si>
   <si>
     <t xml:space="preserve">vegsuppression_url_function()</t>
@@ -314,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -335,6 +371,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,7 +422,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +432,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,14 +564,15 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -592,7 +640,7 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -711,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -724,7 +772,7 @@
       <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -752,6 +800,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" display="https://www.in.gov.br/servicos/diario-oficial-da-uniao"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -927,139 +978,139 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>92</v>
       </c>
     </row>

--- a/analysis/functions_arguments.xlsx
+++ b/analysis/functions_arguments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="download_external_data" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -189,26 +189,8 @@
     <t xml:space="preserve">Lista Negra do Desmatamento</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.in.gov.br/servicos/diario-oficial-da-uniao
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://zenodo.org/records/8412144</t>
-    </r>
+    <t xml:space="preserve">https://www.in.gov.br/servicos/diario-oficial-da-uniao
+https://zenodo.org/records/8412144</t>
   </si>
   <si>
     <t xml:space="preserve">https://zenodo.org/records/8412144/files/priority_list.csv?download=1</t>
@@ -286,6 +268,9 @@
     <t xml:space="preserve">variable</t>
   </si>
   <si>
+    <t xml:space="preserve">variable_label</t>
+  </si>
+  <si>
     <t xml:space="preserve">viz_title</t>
   </si>
   <si>
@@ -295,52 +280,151 @@
     <t xml:space="preserve">y_title</t>
   </si>
   <si>
+    <t xml:space="preserve">summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">out_filename</t>
   </si>
   <si>
+    <t xml:space="preserve">eda_observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal de Observações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variável</t>
+  </si>
+  <si>
     <t xml:space="preserve">eda_timeseries</t>
   </si>
   <si>
     <t xml:space="preserve">name_biome</t>
   </si>
   <si>
-    <t xml:space="preserve">Natural Vegetation Supression Time Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Vegetation Suppression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nvs_timeseries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highways Time Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">highways_timeseries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation Units Time Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consunit_timeseries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigenous Territory Time Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigenous Territory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indilands_timeseries</t>
+    <t xml:space="preserve">Série Temporal da Supressão de Vegetação Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supressão de Vegetação Natural (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_nvs_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal de Rodovias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodovias (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_highways_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal de Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidades de Conservação (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_consunit_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal de Territórios Indígenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território Indígena (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_indilands_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal de Territórios Quilombolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território Quilombola (ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_quilomb_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_spatial_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição espacial de Rodovias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_highways_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição espacial da Supressão de Vegetação Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_nvs_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição Espacial de Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_consunit_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição Espacial de Territórios Indígenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_indilands_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição Espacial de Territórios Quilombolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_quilomb_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograma da Supressão de Vegetação Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_nvs_hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograma das Rodovias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_highways_hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograma das Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_consunit_hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograma de Territórios Indígenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_indilands_hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histograma de Territórios Quilombolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_quilomb_hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda_summary_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabéla de sumários das variáveis do modelo estatítico</t>
   </si>
 </sst>
 </file>
@@ -422,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +521,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -564,7 +656,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +664,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -801,7 +893,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://www.in.gov.br/servicos/diario-oficial-da-uniao"/>
+    <hyperlink ref="E9" r:id="rId1" display="https://www.in.gov.br/servicos/diario-oficial-da-uniao&#10;https://zenodo.org/records/8412144"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -821,7 +913,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -976,13 +1068,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.95"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1009,31 +1107,29 @@
       <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,25 +1137,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,25 +1164,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,25 +1191,326 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>92</v>
+      <c r="F8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/functions_arguments.xlsx
+++ b/analysis/functions_arguments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -425,6 +425,54 @@
   </si>
   <si>
     <t xml:space="preserve">Tabéla de sumários das variáveis do modelo estatítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_scatterplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gráfico de dispersão do modelo estatístico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores Esperados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores Estimados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_mae_distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição do Erro Médio Absoluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro Médio Absoluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_mae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_mae_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal do Erro Médio Absoluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_timeseries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série Temporal dos Valores Estimados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição Espacial dos Valores Estimados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results_mae_spatial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição Espacial do Erro Médio Absoluto</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1116,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,6 +1561,123 @@
         <v>125</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/analysis/functions_arguments.xlsx
+++ b/analysis/functions_arguments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="167">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -286,6 +286,27 @@
     <t xml:space="preserve">out_filename</t>
   </si>
   <si>
+    <t xml:space="preserve">method_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição da Amostragem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_grid_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área das Células da Grade Regular</t>
+  </si>
+  <si>
     <t xml:space="preserve">eda_observations</t>
   </si>
   <si>
@@ -473,6 +494,57 @@
   </si>
   <si>
     <t xml:space="preserve">Distribuição Espacial do Erro Médio Absoluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores SHAP de Unidades de Conservação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_consunit_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_consunit_dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores SHAP de Municipios Monitorados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_monitored_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_monitored_dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores SHAP de Rodovias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_highways_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_highways_dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores SHAP de Pastagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_pasture_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explain_pasture_dependence</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1188,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,12 +1244,11 @@
       <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,24 +1258,11 @@
       <c r="B3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,26 +1270,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,26 +1284,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,26 +1302,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,26 +1329,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,24 +1356,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,22 +1383,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,22 +1410,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>109</v>
+      <c r="H10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,21 +1437,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1414,22 +1462,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,21 +1485,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1460,21 +1508,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1483,21 +1531,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1506,22 +1554,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,153 +1577,406 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>125</v>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="5" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="H22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="J22" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>141</v>
+      <c r="J25" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
